--- a/AAII_Financials/Quarterly/MICR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MICR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>MICR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E8" s="3">
         <v>4300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E9" s="3">
         <v>3800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>4400</v>
       </c>
       <c r="J9" s="3">
         <v>4400</v>
       </c>
       <c r="K9" s="3">
+        <v>4400</v>
+      </c>
+      <c r="L9" s="3">
         <v>4000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>500</v>
       </c>
       <c r="F10" s="3">
+        <v>500</v>
+      </c>
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,13 +893,14 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -925,8 +938,11 @@
       <c r="P12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,57 +1097,61 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E17" s="3">
         <v>4700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>5200</v>
       </c>
       <c r="J17" s="3">
         <v>5200</v>
       </c>
       <c r="K17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="L17" s="3">
         <v>4700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E18" s="3">
         <v>-400</v>
@@ -1131,37 +1160,40 @@
         <v>-400</v>
       </c>
       <c r="G18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1217,18 +1250,21 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -1237,37 +1273,40 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1293,10 +1332,10 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1310,13 +1349,16 @@
       <c r="P22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E23" s="3">
         <v>-500</v>
@@ -1325,37 +1367,40 @@
         <v>-500</v>
       </c>
       <c r="G23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-300</v>
       </c>
       <c r="O23" s="3">
         <v>-300</v>
       </c>
       <c r="P23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1369,11 +1414,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1381,25 +1426,28 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,13 +1490,16 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E26" s="3">
         <v>-500</v>
@@ -1457,42 +1508,45 @@
         <v>-500</v>
       </c>
       <c r="G26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-300</v>
       </c>
       <c r="O26" s="3">
         <v>-300</v>
       </c>
       <c r="P26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E27" s="3">
         <v>-500</v>
@@ -1501,37 +1555,40 @@
         <v>-500</v>
       </c>
       <c r="G27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-300</v>
       </c>
       <c r="O27" s="3">
         <v>-300</v>
       </c>
       <c r="P27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,11 +1648,11 @@
       <c r="F29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="3">
         <v>-200</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>19</v>
@@ -1600,11 +1660,11 @@
       <c r="J29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="3">
         <v>-400</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>19</v>
@@ -1612,14 +1672,17 @@
       <c r="N29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1745,18 +1814,21 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E33" s="3">
         <v>-500</v>
@@ -1765,37 +1837,40 @@
         <v>-500</v>
       </c>
       <c r="G33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-300</v>
       </c>
       <c r="O33" s="3">
         <v>-300</v>
       </c>
       <c r="P33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,13 +1913,16 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E35" s="3">
         <v>-500</v>
@@ -1853,86 +1931,92 @@
         <v>-500</v>
       </c>
       <c r="G35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-300</v>
       </c>
       <c r="O35" s="3">
         <v>-300</v>
       </c>
       <c r="P35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2052,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1994,25 +2080,28 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
-      </c>
-      <c r="M41" s="3">
-        <v>300</v>
       </c>
       <c r="N41" s="3">
         <v>300</v>
       </c>
       <c r="O41" s="3">
+        <v>300</v>
+      </c>
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,96 +2144,105 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E43" s="3">
         <v>2400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2900</v>
-      </c>
-      <c r="I43" s="3">
-        <v>3100</v>
       </c>
       <c r="J43" s="3">
         <v>3100</v>
       </c>
       <c r="K43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L43" s="3">
         <v>2600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E44" s="3">
         <v>2600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3400</v>
-      </c>
-      <c r="O44" s="3">
-        <v>3100</v>
       </c>
       <c r="P44" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,28 +2250,28 @@
         <v>300</v>
       </c>
       <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>900</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1100</v>
       </c>
       <c r="G45" s="3">
         <v>1100</v>
       </c>
       <c r="H45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
-      </c>
-      <c r="L45" s="3">
-        <v>600</v>
       </c>
       <c r="M45" s="3">
         <v>600</v>
@@ -2185,54 +2283,60 @@
         <v>600</v>
       </c>
       <c r="P45" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E46" s="3">
         <v>5300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,52 +2379,58 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E48" s="3">
         <v>4100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5200</v>
       </c>
       <c r="I48" s="3">
         <v>5200</v>
       </c>
       <c r="J48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K48" s="3">
         <v>5500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2328,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -2352,7 +2462,7 @@
         <v>100</v>
       </c>
       <c r="M49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2469,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>700</v>
@@ -2487,16 +2606,19 @@
         <v>700</v>
       </c>
       <c r="N52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O52" s="3">
         <v>800</v>
       </c>
       <c r="P52" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E54" s="3">
         <v>9500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14000</v>
-      </c>
-      <c r="M54" s="3">
-        <v>14800</v>
       </c>
       <c r="N54" s="3">
         <v>14800</v>
       </c>
       <c r="O54" s="3">
+        <v>14800</v>
+      </c>
+      <c r="P54" s="3">
         <v>13600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,228 +2748,244 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1200</v>
       </c>
       <c r="I59" s="3">
         <v>1200</v>
       </c>
       <c r="J59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
-      </c>
-      <c r="L59" s="3">
-        <v>800</v>
       </c>
       <c r="M59" s="3">
         <v>800</v>
       </c>
       <c r="N59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O59" s="3">
         <v>700</v>
       </c>
       <c r="P59" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
         <v>3700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>400</v>
       </c>
       <c r="M61" s="3">
         <v>400</v>
       </c>
       <c r="N61" s="3">
+        <v>400</v>
+      </c>
+      <c r="O61" s="3">
         <v>2300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2875,16 +3020,19 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E66" s="3">
         <v>6700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-3700</v>
       </c>
       <c r="J72" s="3">
         <v>-3700</v>
       </c>
       <c r="K72" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="L72" s="3">
         <v>-3500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E76" s="3">
         <v>2800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,62 +3705,68 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E81" s="3">
         <v>-500</v>
@@ -3581,37 +3775,40 @@
         <v>-500</v>
       </c>
       <c r="G81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-300</v>
       </c>
       <c r="O81" s="3">
         <v>-300</v>
       </c>
       <c r="P81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3901,43 +4117,46 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3966,16 +4186,16 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-300</v>
       </c>
       <c r="H91" s="3">
         <v>-300</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
@@ -3987,19 +4207,22 @@
         <v>-100</v>
       </c>
       <c r="M91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,28 +4312,31 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>700</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-300</v>
       </c>
       <c r="H94" s="3">
         <v>-300</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -4119,19 +4348,22 @@
         <v>-100</v>
       </c>
       <c r="M94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4436,24 +4687,27 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MICR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MICR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>MICR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,230 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3">
         <v>3600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3">
         <v>3500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4300</v>
-      </c>
-      <c r="J9" s="3">
-        <v>4400</v>
       </c>
       <c r="K9" s="3">
         <v>4400</v>
       </c>
       <c r="L9" s="3">
+        <v>4400</v>
+      </c>
+      <c r="M9" s="3">
         <v>4000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
-      </c>
-      <c r="E10" s="3">
-        <v>500</v>
       </c>
       <c r="F10" s="3">
         <v>500</v>
       </c>
       <c r="G10" s="3">
+        <v>500</v>
+      </c>
+      <c r="H10" s="3">
         <v>700</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,16 +906,17 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -941,8 +954,11 @@
       <c r="Q12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,8 +1004,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1035,8 +1054,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,63 +1123,67 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3">
         <v>4100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>5200</v>
       </c>
       <c r="K17" s="3">
         <v>5200</v>
       </c>
       <c r="L17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M17" s="3">
         <v>4700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="3">
         <v>-500</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-400</v>
       </c>
       <c r="F18" s="3">
         <v>-400</v>
@@ -1163,37 +1192,40 @@
         <v>-400</v>
       </c>
       <c r="H18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1211,13 +1243,14 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1253,22 +1286,25 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
@@ -1276,37 +1312,40 @@
         <v>0</v>
       </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1335,10 +1374,10 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1352,16 +1391,19 @@
       <c r="Q22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-500</v>
       </c>
       <c r="F23" s="3">
         <v>-500</v>
@@ -1370,42 +1412,45 @@
         <v>-500</v>
       </c>
       <c r="H23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-300</v>
       </c>
       <c r="P23" s="3">
         <v>-300</v>
       </c>
       <c r="Q23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1417,11 +1462,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1429,16 +1474,16 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1446,8 +1491,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,16 +1541,19 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-500</v>
       </c>
       <c r="F26" s="3">
         <v>-500</v>
@@ -1511,45 +1562,48 @@
         <v>-500</v>
       </c>
       <c r="H26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-300</v>
       </c>
       <c r="P26" s="3">
         <v>-300</v>
       </c>
       <c r="Q26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-500</v>
       </c>
       <c r="F27" s="3">
         <v>-500</v>
@@ -1558,37 +1612,40 @@
         <v>-500</v>
       </c>
       <c r="H27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-300</v>
       </c>
       <c r="P27" s="3">
         <v>-300</v>
       </c>
       <c r="Q27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1651,38 +1711,41 @@
       <c r="G29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="3">
         <v>-200</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="3">
         <v>-400</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,13 +1841,16 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1817,21 +1886,24 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-500</v>
       </c>
       <c r="F33" s="3">
         <v>-500</v>
@@ -1840,37 +1912,40 @@
         <v>-500</v>
       </c>
       <c r="H33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-300</v>
       </c>
       <c r="P33" s="3">
         <v>-300</v>
       </c>
       <c r="Q33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,16 +1991,19 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-500</v>
       </c>
       <c r="F35" s="3">
         <v>-500</v>
@@ -1934,89 +2012,95 @@
         <v>-500</v>
       </c>
       <c r="H35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-300</v>
       </c>
       <c r="P35" s="3">
         <v>-300</v>
       </c>
       <c r="Q35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,13 +2138,14 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>0</v>
+      <c r="D41" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2083,25 +2169,28 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
-      </c>
-      <c r="N41" s="3">
-        <v>300</v>
       </c>
       <c r="O41" s="3">
         <v>300</v>
       </c>
       <c r="P41" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,134 +2236,143 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="3">
         <v>2200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2900</v>
-      </c>
-      <c r="J43" s="3">
-        <v>3100</v>
       </c>
       <c r="K43" s="3">
         <v>3100</v>
       </c>
       <c r="L43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M43" s="3">
         <v>2600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="3">
         <v>2500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3400</v>
-      </c>
-      <c r="P44" s="3">
-        <v>3100</v>
       </c>
       <c r="Q44" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>300</v>
+      <c r="D45" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
         <v>900</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1100</v>
       </c>
       <c r="H45" s="3">
         <v>1100</v>
       </c>
       <c r="I45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
-      </c>
-      <c r="M45" s="3">
-        <v>600</v>
       </c>
       <c r="N45" s="3">
         <v>600</v>
@@ -2286,57 +2384,63 @@
         <v>600</v>
       </c>
       <c r="Q45" s="3">
+        <v>600</v>
+      </c>
+      <c r="R45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="3">
         <v>4900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,66 +2486,72 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="3">
         <v>3800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>5200</v>
       </c>
       <c r="J48" s="3">
         <v>5200</v>
       </c>
       <c r="K48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="L48" s="3">
         <v>5500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -2465,7 +2575,7 @@
         <v>100</v>
       </c>
       <c r="N49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2476,8 +2586,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,13 +2686,16 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2591,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>700</v>
@@ -2609,16 +2728,19 @@
         <v>700</v>
       </c>
       <c r="O52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="P52" s="3">
         <v>800</v>
       </c>
       <c r="Q52" s="3">
+        <v>800</v>
+      </c>
+      <c r="R52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2786,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="3">
         <v>8700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14000</v>
-      </c>
-      <c r="N54" s="3">
-        <v>14800</v>
       </c>
       <c r="O54" s="3">
         <v>14800</v>
       </c>
       <c r="P54" s="3">
+        <v>14800</v>
+      </c>
+      <c r="Q54" s="3">
         <v>13600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,243 +2878,259 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="3">
         <v>4800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1200</v>
       </c>
       <c r="J59" s="3">
         <v>1200</v>
       </c>
       <c r="K59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
-      </c>
-      <c r="M59" s="3">
-        <v>800</v>
       </c>
       <c r="N59" s="3">
         <v>800</v>
       </c>
       <c r="O59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="P59" s="3">
         <v>700</v>
       </c>
       <c r="Q59" s="3">
+        <v>700</v>
+      </c>
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="3">
         <v>6100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>400</v>
       </c>
       <c r="N61" s="3">
         <v>400</v>
       </c>
       <c r="O61" s="3">
+        <v>400</v>
+      </c>
+      <c r="P61" s="3">
         <v>2300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3023,16 +3168,19 @@
         <v>0</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3326,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="3">
         <v>6500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3596,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3800</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-3700</v>
       </c>
       <c r="K72" s="3">
         <v>-3700</v>
       </c>
       <c r="L72" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="M72" s="3">
         <v>-3500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3796,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="3">
         <v>2200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,68 +3896,74 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-500</v>
       </c>
       <c r="F81" s="3">
         <v>-500</v>
@@ -3778,37 +3972,40 @@
         <v>-500</v>
       </c>
       <c r="H81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-300</v>
       </c>
       <c r="P81" s="3">
         <v>-300</v>
       </c>
       <c r="Q81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,13 +4023,14 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>400</v>
+      <c r="D83" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
@@ -3873,8 +4071,11 @@
       <c r="Q83" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4321,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,13 +4393,14 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4189,16 +4409,16 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-300</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
@@ -4210,19 +4430,22 @@
         <v>-100</v>
       </c>
       <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,31 +4541,34 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>700</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-300</v>
       </c>
       <c r="I94" s="3">
         <v>-300</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
@@ -4351,19 +4580,22 @@
         <v>-100</v>
       </c>
       <c r="N94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4811,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,13 +4911,16 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -4690,24 +4941,27 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MICR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MICR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>MICR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,230 +665,242 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3">
         <v>3600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3">
         <v>3500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4300</v>
-      </c>
-      <c r="K9" s="3">
-        <v>4400</v>
       </c>
       <c r="L9" s="3">
         <v>4400</v>
       </c>
       <c r="M9" s="3">
+        <v>4400</v>
+      </c>
+      <c r="N9" s="3">
         <v>4000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>500</v>
       </c>
       <c r="G10" s="3">
         <v>500</v>
       </c>
       <c r="H10" s="3">
+        <v>500</v>
+      </c>
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -907,8 +919,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,8 +931,8 @@
       <c r="E12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
+      <c r="F12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -957,8 +970,11 @@
       <c r="R12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,8 +1023,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1057,8 +1076,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1107,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,69 +1149,73 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="3">
         <v>4100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>5200</v>
       </c>
       <c r="L17" s="3">
         <v>5200</v>
       </c>
       <c r="M17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N17" s="3">
         <v>4700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-400</v>
       </c>
       <c r="G18" s="3">
         <v>-400</v>
@@ -1195,37 +1224,40 @@
         <v>-400</v>
       </c>
       <c r="I18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,16 +1276,17 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
+      <c r="E20" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1289,25 +1322,28 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
@@ -1315,37 +1351,40 @@
         <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1377,10 +1416,10 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1394,19 +1433,22 @@
       <c r="R22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-500</v>
       </c>
       <c r="G23" s="3">
         <v>-500</v>
@@ -1415,45 +1457,48 @@
         <v>-500</v>
       </c>
       <c r="I23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-300</v>
       </c>
       <c r="Q23" s="3">
         <v>-300</v>
       </c>
       <c r="R23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1465,11 +1510,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1477,16 +1522,16 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1494,8 +1539,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,19 +1592,22 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-500</v>
       </c>
       <c r="G26" s="3">
         <v>-500</v>
@@ -1565,48 +1616,51 @@
         <v>-500</v>
       </c>
       <c r="I26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-300</v>
       </c>
       <c r="Q26" s="3">
         <v>-300</v>
       </c>
       <c r="R26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-500</v>
       </c>
       <c r="G27" s="3">
         <v>-500</v>
@@ -1615,37 +1669,40 @@
         <v>-500</v>
       </c>
       <c r="I27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-300</v>
       </c>
       <c r="Q27" s="3">
         <v>-300</v>
       </c>
       <c r="R27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1714,38 +1774,41 @@
       <c r="H29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="3">
         <v>-200</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" s="3">
         <v>-400</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,16 +1910,19 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
+      <c r="E32" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1889,24 +1958,27 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-500</v>
       </c>
       <c r="G33" s="3">
         <v>-500</v>
@@ -1915,37 +1987,40 @@
         <v>-500</v>
       </c>
       <c r="I33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-300</v>
       </c>
       <c r="Q33" s="3">
         <v>-300</v>
       </c>
       <c r="R33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,19 +2069,22 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-500</v>
       </c>
       <c r="G35" s="3">
         <v>-500</v>
@@ -2015,92 +2093,98 @@
         <v>-500</v>
       </c>
       <c r="I35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-300</v>
       </c>
       <c r="Q35" s="3">
         <v>-300</v>
       </c>
       <c r="R35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,16 +2224,17 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
+      <c r="E41" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2172,25 +2258,28 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
-      </c>
-      <c r="O41" s="3">
-        <v>300</v>
       </c>
       <c r="P41" s="3">
         <v>300</v>
       </c>
       <c r="Q41" s="3">
+        <v>300</v>
+      </c>
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2239,143 +2328,152 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="3">
         <v>2200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2900</v>
-      </c>
-      <c r="K43" s="3">
-        <v>3100</v>
       </c>
       <c r="L43" s="3">
         <v>3100</v>
       </c>
       <c r="M43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N43" s="3">
         <v>2600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="3">
         <v>2500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3400</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>3100</v>
       </c>
       <c r="R44" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="3">
-        <v>300</v>
+      <c r="E45" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
       </c>
       <c r="G45" s="3">
+        <v>300</v>
+      </c>
+      <c r="H45" s="3">
         <v>900</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1100</v>
       </c>
       <c r="I45" s="3">
         <v>1100</v>
       </c>
       <c r="J45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>800</v>
-      </c>
-      <c r="N45" s="3">
-        <v>600</v>
       </c>
       <c r="O45" s="3">
         <v>600</v>
@@ -2387,60 +2485,66 @@
         <v>600</v>
       </c>
       <c r="R45" s="3">
+        <v>600</v>
+      </c>
+      <c r="S45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="3">
         <v>4900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2489,72 +2593,78 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="3">
         <v>3800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>5200</v>
       </c>
       <c r="K48" s="3">
         <v>5200</v>
       </c>
       <c r="L48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M48" s="3">
         <v>5500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
@@ -2578,7 +2688,7 @@
         <v>100</v>
       </c>
       <c r="O49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2589,8 +2699,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,16 +2805,19 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2713,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>700</v>
@@ -2731,16 +2850,19 @@
         <v>700</v>
       </c>
       <c r="P52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q52" s="3">
         <v>800</v>
       </c>
       <c r="R52" s="3">
+        <v>800</v>
+      </c>
+      <c r="S52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,58 +2911,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="3">
         <v>8700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14000</v>
-      </c>
-      <c r="O54" s="3">
-        <v>14800</v>
       </c>
       <c r="P54" s="3">
         <v>14800</v>
       </c>
       <c r="Q54" s="3">
+        <v>14800</v>
+      </c>
+      <c r="R54" s="3">
         <v>13600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,208 +3008,221 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="3">
         <v>4800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1200</v>
       </c>
       <c r="K59" s="3">
         <v>1200</v>
       </c>
       <c r="L59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>800</v>
       </c>
       <c r="O59" s="3">
         <v>800</v>
       </c>
       <c r="P59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q59" s="3">
         <v>700</v>
       </c>
       <c r="R59" s="3">
+        <v>700</v>
+      </c>
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="3">
         <v>6100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3088,49 +3230,52 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4000</v>
-      </c>
-      <c r="N61" s="3">
-        <v>400</v>
       </c>
       <c r="O61" s="3">
         <v>400</v>
       </c>
       <c r="P61" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q61" s="3">
         <v>2300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3171,16 +3316,19 @@
         <v>0</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,58 +3483,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" s="3">
         <v>6500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,58 +3769,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3800</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-3700</v>
       </c>
       <c r="L72" s="3">
         <v>-3700</v>
       </c>
       <c r="M72" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="N72" s="3">
         <v>-3500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,58 +3981,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="3">
         <v>2200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,74 +4087,80 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-500</v>
       </c>
       <c r="G81" s="3">
         <v>-500</v>
@@ -3975,37 +4169,40 @@
         <v>-500</v>
       </c>
       <c r="I81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-300</v>
       </c>
       <c r="Q81" s="3">
         <v>-300</v>
       </c>
       <c r="R81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,16 +4221,17 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E83" s="3">
-        <v>400</v>
+      <c r="E83" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
@@ -4074,8 +4272,11 @@
       <c r="R83" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4537,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
+      <c r="E89" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,16 +4613,17 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4412,16 +4632,16 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-300</v>
       </c>
       <c r="J91" s="3">
         <v>-300</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
@@ -4433,19 +4653,22 @@
         <v>-100</v>
       </c>
       <c r="O91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,34 +4770,37 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>700</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-300</v>
       </c>
       <c r="J94" s="3">
         <v>-300</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
@@ -4583,19 +4812,22 @@
         <v>-100</v>
       </c>
       <c r="O94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,58 +5056,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,16 +5162,19 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
+      <c r="E102" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -4944,24 +5195,27 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MICR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MICR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
   <si>
     <t>MICR</t>
   </si>
@@ -665,10 +665,12 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -699,19 +701,19 @@
         <v>44104</v>
       </c>
       <c r="F7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
-      </c>
-      <c r="I7" s="2">
-        <v>43555</v>
-      </c>
-      <c r="J7" s="2">
-        <v>43465</v>
       </c>
       <c r="K7" s="2">
         <v>43373</v>
@@ -751,20 +753,20 @@
       <c r="E8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="3">
         <v>3600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4900</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>4100</v>
       </c>
       <c r="K8" s="3">
         <v>5000</v>
@@ -804,20 +806,20 @@
       <c r="E9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="3">
         <v>3500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>3800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>4400</v>
-      </c>
-      <c r="I9" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>4100</v>
       </c>
       <c r="K9" s="3">
         <v>4300</v>
@@ -857,20 +859,20 @@
       <c r="E10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
-      </c>
-      <c r="I10" s="3">
-        <v>700</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>700</v>
@@ -934,11 +936,11 @@
       <c r="F12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
+      <c r="G12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -1161,20 +1163,20 @@
       <c r="E17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="3">
         <v>4100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>5100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>4900</v>
       </c>
       <c r="K17" s="3">
         <v>5000</v>
@@ -1214,20 +1216,20 @@
       <c r="E18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="3">
         <v>-500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-400</v>
       </c>
       <c r="I18" s="3">
         <v>-400</v>
       </c>
       <c r="J18" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -1288,11 +1290,11 @@
       <c r="E20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
+      <c r="F20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1341,20 +1343,20 @@
       <c r="E21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
         <v>400</v>
@@ -1447,20 +1449,20 @@
       <c r="E23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="3">
         <v>-600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-500</v>
       </c>
       <c r="I23" s="3">
         <v>-500</v>
       </c>
       <c r="J23" s="3">
-        <v>-900</v>
+        <v>-500</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1500,11 +1502,11 @@
       <c r="E24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1513,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1606,20 +1608,20 @@
       <c r="E26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="3">
         <v>-600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-500</v>
       </c>
       <c r="I26" s="3">
         <v>-500</v>
       </c>
       <c r="J26" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
@@ -1659,20 +1661,20 @@
       <c r="E27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="3">
         <v>-600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-500</v>
       </c>
       <c r="I27" s="3">
         <v>-500</v>
       </c>
       <c r="J27" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
@@ -1777,8 +1779,8 @@
       <c r="I29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="3">
-        <v>-200</v>
+      <c r="J29" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>19</v>
@@ -1924,11 +1926,11 @@
       <c r="E32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
+      <c r="F32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1977,20 +1979,20 @@
       <c r="E33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="3">
         <v>-600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-500</v>
       </c>
       <c r="I33" s="3">
         <v>-500</v>
       </c>
       <c r="J33" s="3">
-        <v>-900</v>
+        <v>-500</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
@@ -2083,20 +2085,20 @@
       <c r="E35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="3">
         <v>-600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-500</v>
       </c>
       <c r="I35" s="3">
         <v>-500</v>
       </c>
       <c r="J35" s="3">
-        <v>-900</v>
+        <v>-500</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
@@ -2142,19 +2144,19 @@
         <v>44104</v>
       </c>
       <c r="F38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
-      </c>
-      <c r="I38" s="2">
-        <v>43555</v>
-      </c>
-      <c r="J38" s="2">
-        <v>43465</v>
       </c>
       <c r="K38" s="2">
         <v>43373</v>
@@ -2236,11 +2238,11 @@
       <c r="E41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
+      <c r="F41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2342,17 +2344,17 @@
       <c r="E43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="3">
         <v>2200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>2800</v>
       </c>
       <c r="J43" s="3">
         <v>2300</v>
@@ -2395,20 +2397,20 @@
       <c r="E44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="3">
         <v>2500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>2600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>3000</v>
-      </c>
-      <c r="I44" s="3">
-        <v>3900</v>
-      </c>
-      <c r="J44" s="3">
-        <v>3700</v>
       </c>
       <c r="K44" s="3">
         <v>3800</v>
@@ -2448,20 +2450,20 @@
       <c r="E45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1100</v>
       </c>
       <c r="K45" s="3">
         <v>500</v>
@@ -2501,20 +2503,20 @@
       <c r="E46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="3">
         <v>4900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>5300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>6200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>7700</v>
-      </c>
-      <c r="J46" s="3">
-        <v>7100</v>
       </c>
       <c r="K46" s="3">
         <v>7300</v>
@@ -2607,20 +2609,20 @@
       <c r="E48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="3">
         <v>3800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>4500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>4800</v>
-      </c>
-      <c r="J48" s="3">
-        <v>5100</v>
       </c>
       <c r="K48" s="3">
         <v>5200</v>
@@ -2660,17 +2662,17 @@
       <c r="E49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
@@ -2819,11 +2821,11 @@
       <c r="E52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2925,20 +2927,20 @@
       <c r="E54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="3">
         <v>8700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>9500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>10800</v>
-      </c>
-      <c r="I54" s="3">
-        <v>12600</v>
-      </c>
-      <c r="J54" s="3">
-        <v>12300</v>
       </c>
       <c r="K54" s="3">
         <v>13300</v>
@@ -3020,20 +3022,20 @@
       <c r="E57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1200</v>
       </c>
       <c r="K57" s="3">
         <v>1500</v>
@@ -3073,20 +3075,20 @@
       <c r="E58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="3">
         <v>4800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>3200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2400</v>
       </c>
       <c r="K58" s="3">
         <v>1900</v>
@@ -3126,20 +3128,20 @@
       <c r="E59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1000</v>
       </c>
       <c r="K59" s="3">
         <v>1200</v>
@@ -3179,20 +3181,20 @@
       <c r="E60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="3">
         <v>6100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>5500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>4600</v>
       </c>
       <c r="K60" s="3">
         <v>4700</v>
@@ -3233,19 +3235,19 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>3800</v>
-      </c>
-      <c r="I61" s="3">
-        <v>3500</v>
-      </c>
-      <c r="J61" s="3">
-        <v>3600</v>
       </c>
       <c r="K61" s="3">
         <v>3700</v>
@@ -3497,20 +3499,20 @@
       <c r="E66" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" s="3">
         <v>6500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>7500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>9000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>8200</v>
       </c>
       <c r="K66" s="3">
         <v>8300</v>
@@ -3783,20 +3785,20 @@
       <c r="E72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="3">
         <v>-6800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-6100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-5600</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-4600</v>
       </c>
       <c r="K72" s="3">
         <v>-3800</v>
@@ -3995,20 +3997,20 @@
       <c r="E76" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" s="3">
         <v>2200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3200</v>
-      </c>
-      <c r="I76" s="3">
-        <v>3600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>4100</v>
       </c>
       <c r="K76" s="3">
         <v>4900</v>
@@ -4107,19 +4109,19 @@
         <v>44104</v>
       </c>
       <c r="F80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
-      </c>
-      <c r="I80" s="2">
-        <v>43555</v>
-      </c>
-      <c r="J80" s="2">
-        <v>43465</v>
       </c>
       <c r="K80" s="2">
         <v>43373</v>
@@ -4159,20 +4161,20 @@
       <c r="E81" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" s="3">
         <v>-600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-500</v>
       </c>
       <c r="I81" s="3">
         <v>-500</v>
       </c>
       <c r="J81" s="3">
-        <v>-900</v>
+        <v>-500</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
@@ -4233,11 +4235,11 @@
       <c r="E83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F83" s="3">
-        <v>400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>400</v>
+      <c r="F83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
@@ -4551,20 +4553,20 @@
       <c r="E89" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
+      <c r="F89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>700</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>200</v>
@@ -4625,20 +4627,20 @@
       <c r="E91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-300</v>
@@ -4784,20 +4786,20 @@
       <c r="E94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>700</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-100</v>
-      </c>
       <c r="J94" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>-300</v>
@@ -5070,20 +5072,20 @@
       <c r="E100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-600</v>
-      </c>
-      <c r="I100" s="3">
-        <v>700</v>
-      </c>
-      <c r="J100" s="3">
-        <v>400</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
@@ -5176,11 +5178,11 @@
       <c r="E102" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
+      <c r="F102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/MICR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MICR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
   <si>
     <t>MICR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,101 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
+      <c r="D8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5800</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>19</v>
@@ -759,44 +767,50 @@
       <c r="G8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="3">
         <v>3600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>5400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>5300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -812,44 +826,50 @@
       <c r="G9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="3">
         <v>3500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3800</v>
-      </c>
-      <c r="J9" s="3">
-        <v>4400</v>
-      </c>
-      <c r="K9" s="3">
-        <v>4300</v>
       </c>
       <c r="L9" s="3">
         <v>4400</v>
       </c>
       <c r="M9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="N9" s="3">
         <v>4400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
+        <v>4400</v>
+      </c>
+      <c r="P9" s="3">
         <v>4000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>4200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>5000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>4600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>4400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -865,32 +885,32 @@
       <c r="G10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
-      </c>
-      <c r="K10" s="3">
-        <v>700</v>
-      </c>
-      <c r="L10" s="3">
-        <v>900</v>
       </c>
       <c r="M10" s="3">
         <v>700</v>
       </c>
       <c r="N10" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="O10" s="3">
         <v>700</v>
       </c>
       <c r="P10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q10" s="3">
         <v>700</v>
@@ -899,10 +919,16 @@
         <v>400</v>
       </c>
       <c r="S10" s="3">
+        <v>700</v>
+      </c>
+      <c r="T10" s="3">
+        <v>400</v>
+      </c>
+      <c r="U10" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,11 +970,11 @@
       <c r="H12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
+      <c r="I12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1081,8 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1204,10 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1169,44 +1223,50 @@
       <c r="G17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="3">
         <v>4100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>5100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1222,44 +1282,50 @@
       <c r="G18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1296,11 +1364,11 @@
       <c r="G20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
+      <c r="H20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1327,13 +1395,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1349,52 +1423,58 @@
       <c r="G21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
+      <c r="H21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
-      </c>
-      <c r="M21" s="3">
-        <v>300</v>
-      </c>
-      <c r="N21" s="3">
-        <v>200</v>
       </c>
       <c r="O21" s="3">
         <v>300</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q21" s="3">
+        <v>300</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1421,13 +1501,13 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
@@ -1438,8 +1518,14 @@
       <c r="S22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>100</v>
+      </c>
+      <c r="U22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1455,44 +1541,50 @@
       <c r="G23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
-      </c>
       <c r="N23" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-200</v>
       </c>
       <c r="P23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1508,11 +1600,11 @@
       <c r="G24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1527,25 +1619,31 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-400</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1695,14 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1614,23 +1718,23 @@
       <c r="G26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
@@ -1639,19 +1743,25 @@
         <v>-200</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1667,23 +1777,23 @@
       <c r="G27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-200</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
@@ -1692,19 +1802,25 @@
         <v>-200</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1791,26 +1913,32 @@
       <c r="M29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P29" s="3">
         <v>-400</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1932,11 +2072,11 @@
       <c r="G32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
+      <c r="H32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1963,13 +2103,19 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1985,44 +2131,50 @@
       <c r="G33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-200</v>
-      </c>
       <c r="N33" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-200</v>
       </c>
       <c r="P33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2226,14 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2091,102 +2249,114 @@
       <c r="G35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-200</v>
-      </c>
       <c r="N35" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-200</v>
       </c>
       <c r="P35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2399,10 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2244,11 +2418,11 @@
       <c r="G41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
+      <c r="H41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -2263,25 +2437,31 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2513,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2350,44 +2536,50 @@
       <c r="G43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="3">
         <v>2200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>3200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>2300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2403,44 +2595,50 @@
       <c r="G44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="3">
         <v>2500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>2600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>3600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>3300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>3400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>3200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>3400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>3100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2456,32 +2654,32 @@
       <c r="G45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
-      </c>
-      <c r="O45" s="3">
-        <v>600</v>
-      </c>
-      <c r="P45" s="3">
-        <v>600</v>
       </c>
       <c r="Q45" s="3">
         <v>600</v>
@@ -2490,10 +2688,16 @@
         <v>600</v>
       </c>
       <c r="S45" s="3">
+        <v>600</v>
+      </c>
+      <c r="T45" s="3">
+        <v>600</v>
+      </c>
+      <c r="U45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2509,44 +2713,50 @@
       <c r="G46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="3">
         <v>4900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>5300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>7300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>7200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>7400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>6300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2808,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2615,35 +2831,35 @@
       <c r="G48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="3">
         <v>3800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>4100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>5500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>6100</v>
-      </c>
-      <c r="P48" s="3">
-        <v>6400</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>6500</v>
       </c>
       <c r="R48" s="3">
         <v>6400</v>
@@ -2651,8 +2867,14 @@
       <c r="S48" s="3">
         <v>6500</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="U48" s="3">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2668,17 +2890,17 @@
       <c r="G49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
+      <c r="H49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3">
         <v>100</v>
@@ -2693,10 +2915,10 @@
         <v>100</v>
       </c>
       <c r="P49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2827,20 +3067,20 @@
       <c r="G52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>700</v>
@@ -2855,16 +3095,22 @@
         <v>700</v>
       </c>
       <c r="Q52" s="3">
+        <v>700</v>
+      </c>
+      <c r="R52" s="3">
+        <v>700</v>
+      </c>
+      <c r="S52" s="3">
         <v>800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3162,14 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2933,44 +3185,50 @@
       <c r="G54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="3">
         <v>8700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>13300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>12900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>13000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>13900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>14000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>14800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>14800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>13600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3271,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3028,44 +3290,50 @@
       <c r="G57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3081,44 +3349,50 @@
       <c r="G58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="3">
         <v>4800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>5700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>5400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>3500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3134,44 +3408,50 @@
       <c r="G59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3187,44 +3467,50 @@
       <c r="G60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="3">
         <v>6100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>8200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>8800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>6300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3241,13 +3527,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>500</v>
-      </c>
-      <c r="I61" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J61" s="3">
-        <v>3800</v>
       </c>
       <c r="K61" s="3">
         <v>3700</v>
@@ -3256,28 +3542,34 @@
         <v>3800</v>
       </c>
       <c r="M61" s="3">
+        <v>3700</v>
+      </c>
+      <c r="N61" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O61" s="3">
         <v>3900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3321,16 +3613,22 @@
         <v>0</v>
       </c>
       <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3798,14 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3505,44 +3821,50 @@
       <c r="G66" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" s="3">
         <v>6500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>9300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>7400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +4116,14 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3791,44 +4139,50 @@
       <c r="G72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J72" s="3">
         <v>-6800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-5600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-3700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4352,14 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4003,44 +4375,50 @@
       <c r="G76" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J76" s="3">
         <v>2200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3200</v>
-      </c>
-      <c r="K76" s="3">
-        <v>4900</v>
-      </c>
-      <c r="L76" s="3">
-        <v>5000</v>
       </c>
       <c r="M76" s="3">
         <v>4900</v>
       </c>
       <c r="N76" s="3">
+        <v>5000</v>
+      </c>
+      <c r="O76" s="3">
+        <v>4900</v>
+      </c>
+      <c r="P76" s="3">
         <v>5100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>5500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>6100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>6300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4470,78 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4167,44 +4557,50 @@
       <c r="G81" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-200</v>
-      </c>
       <c r="N81" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-200</v>
       </c>
       <c r="P81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4241,11 +4639,11 @@
       <c r="G83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H83" s="3">
-        <v>400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>400</v>
+      <c r="H83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J83" s="3">
         <v>400</v>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>400</v>
+      </c>
+      <c r="U83" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4970,14 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4559,44 +4993,50 @@
       <c r="G89" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
+      <c r="H89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4633,23 +5075,23 @@
       <c r="G91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
@@ -4658,19 +5100,25 @@
         <v>-100</v>
       </c>
       <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5229,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4792,23 +5252,23 @@
       <c r="G94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>700</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-300</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
@@ -4817,19 +5277,25 @@
         <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="Q94" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="R94" s="3">
         <v>-300</v>
       </c>
       <c r="S94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5547,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5078,44 +5570,50 @@
       <c r="G100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5665,14 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5184,11 +5688,11 @@
       <c r="G102" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
+      <c r="H102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -5200,24 +5704,30 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
-      </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-100</v>
       </c>
       <c r="R102" s="3">
         <v>100</v>
       </c>
       <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MICR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MICR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
   <si>
     <t>MICR</t>
   </si>
@@ -2406,26 +2406,26 @@
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>19</v>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
+      <c r="J41" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2524,26 +2524,26 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>19</v>
+      <c r="D43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H43" s="3">
+        <v>2300</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J43" s="3">
-        <v>2200</v>
+      <c r="J43" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K43" s="3">
         <v>2400</v>
@@ -2583,26 +2583,26 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>19</v>
+      <c r="D44" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G44" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H44" s="3">
+        <v>3700</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J44" s="3">
-        <v>2500</v>
+      <c r="J44" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K44" s="3">
         <v>2600</v>
@@ -2642,26 +2642,26 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>19</v>
+      <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J45" s="3">
-        <v>300</v>
+      <c r="J45" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
@@ -2701,26 +2701,26 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>19</v>
+      <c r="D46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G46" s="3">
+        <v>7700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>7100</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J46" s="3">
-        <v>4900</v>
+      <c r="J46" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K46" s="3">
         <v>5300</v>
@@ -2819,26 +2819,26 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>19</v>
+      <c r="D48" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H48" s="3">
+        <v>5100</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J48" s="3">
-        <v>3800</v>
+      <c r="J48" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K48" s="3">
         <v>4100</v>
@@ -2878,26 +2878,26 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>19</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>100</v>
+      </c>
+      <c r="G49" s="3">
+        <v>100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="J49" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -3055,26 +3055,26 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>19</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3173,26 +3173,26 @@
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>19</v>
+      <c r="D54" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G54" s="3">
+        <v>12600</v>
+      </c>
+      <c r="H54" s="3">
+        <v>12300</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J54" s="3">
-        <v>8700</v>
+      <c r="J54" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K54" s="3">
         <v>9500</v>
@@ -3278,26 +3278,26 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>19</v>
+      <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>900</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J57" s="3">
-        <v>800</v>
+      <c r="J57" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K57" s="3">
         <v>600</v>
@@ -3337,26 +3337,26 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>19</v>
+      <c r="D58" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>2400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J58" s="3">
-        <v>4800</v>
+      <c r="J58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K58" s="3">
         <v>1600</v>
@@ -3396,26 +3396,26 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>19</v>
+      <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>700</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1000</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J59" s="3">
-        <v>400</v>
+      <c r="J59" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K59" s="3">
         <v>800</v>
@@ -3455,26 +3455,26 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>19</v>
+      <c r="D60" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>4600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J60" s="3">
-        <v>6100</v>
+      <c r="J60" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K60" s="3">
         <v>3000</v>
@@ -3515,25 +3515,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>3700</v>
@@ -3809,26 +3809,26 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>19</v>
+      <c r="D66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G66" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>8200</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="3">
-        <v>6500</v>
+      <c r="J66" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K66" s="3">
         <v>6700</v>
@@ -4127,26 +4127,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>19</v>
+      <c r="D72" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-4600</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J72" s="3">
-        <v>-6800</v>
+      <c r="J72" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K72" s="3">
         <v>-6100</v>
@@ -4363,26 +4363,26 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>19</v>
+      <c r="D76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H76" s="3">
+        <v>4100</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J76" s="3">
-        <v>2200</v>
+      <c r="J76" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K76" s="3">
         <v>2800</v>

--- a/AAII_Financials/Quarterly/MICR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MICR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
   <si>
     <t>MICR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,109 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E8" s="3">
         <v>5400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5800</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>19</v>
       </c>
@@ -773,44 +777,47 @@
       <c r="I8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="3">
         <v>3600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -832,44 +839,47 @@
       <c r="I9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="3">
         <v>3500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4300</v>
-      </c>
-      <c r="N9" s="3">
-        <v>4400</v>
       </c>
       <c r="O9" s="3">
         <v>4400</v>
       </c>
       <c r="P9" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Q9" s="3">
         <v>4000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -891,44 +901,47 @@
       <c r="I10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>500</v>
       </c>
       <c r="L10" s="3">
         <v>500</v>
       </c>
       <c r="M10" s="3">
+        <v>500</v>
+      </c>
+      <c r="N10" s="3">
         <v>700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +990,8 @@
       <c r="J12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,8 +1232,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1229,44 +1256,47 @@
       <c r="I17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="3">
         <v>4100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>5200</v>
       </c>
       <c r="O17" s="3">
         <v>5200</v>
       </c>
       <c r="P17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>4700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1288,44 +1318,47 @@
       <c r="I18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="3">
         <v>-500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-400</v>
       </c>
       <c r="L18" s="3">
         <v>-400</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1370,8 +1404,8 @@
       <c r="I20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="J20" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1401,13 +1435,16 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1432,41 +1469,44 @@
       <c r="J21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
+      <c r="K21" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1477,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1507,10 +1547,10 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
@@ -1524,8 +1564,11 @@
       <c r="U22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1547,44 +1590,47 @@
       <c r="I23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="3">
         <v>-600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-500</v>
       </c>
       <c r="L23" s="3">
         <v>-500</v>
       </c>
       <c r="M23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-300</v>
       </c>
       <c r="T23" s="3">
         <v>-300</v>
       </c>
       <c r="U23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1606,8 +1652,8 @@
       <c r="I24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1625,16 +1671,16 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-400</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,8 +1750,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1724,44 +1776,47 @@
       <c r="I26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="3">
         <v>-600</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-500</v>
       </c>
       <c r="L26" s="3">
         <v>-500</v>
       </c>
       <c r="M26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-300</v>
       </c>
       <c r="T26" s="3">
         <v>-300</v>
       </c>
       <c r="U26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1783,44 +1838,47 @@
       <c r="I27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="3">
         <v>-600</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-500</v>
       </c>
       <c r="L27" s="3">
         <v>-500</v>
       </c>
       <c r="M27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-300</v>
       </c>
       <c r="T27" s="3">
         <v>-300</v>
       </c>
       <c r="U27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1919,26 +1980,29 @@
       <c r="O29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-400</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2078,8 +2148,8 @@
       <c r="I32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="J32" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2109,13 +2179,16 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2137,44 +2210,47 @@
       <c r="I33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="3">
         <v>-600</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-500</v>
       </c>
       <c r="L33" s="3">
         <v>-500</v>
       </c>
       <c r="M33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-300</v>
       </c>
       <c r="T33" s="3">
         <v>-300</v>
       </c>
       <c r="U33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,8 +2308,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2255,108 +2334,114 @@
       <c r="I35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="3">
         <v>-600</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-500</v>
       </c>
       <c r="L35" s="3">
         <v>-500</v>
       </c>
       <c r="M35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-300</v>
       </c>
       <c r="T35" s="3">
         <v>-300</v>
       </c>
       <c r="U35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,8 +2487,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2418,8 +2505,8 @@
       <c r="G41" s="3">
         <v>0</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
+      <c r="H41" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>19</v>
@@ -2427,8 +2514,8 @@
       <c r="J41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
+      <c r="K41" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2443,25 +2530,28 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
-      </c>
-      <c r="R41" s="3">
-        <v>300</v>
       </c>
       <c r="S41" s="3">
         <v>300</v>
       </c>
       <c r="T41" s="3">
+        <v>300</v>
+      </c>
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2609,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2536,50 +2629,53 @@
       <c r="G43" s="3">
         <v>2800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M43" s="3">
         <v>2300</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K43" s="3">
-        <v>2400</v>
-      </c>
-      <c r="L43" s="3">
-        <v>2300</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2900</v>
-      </c>
-      <c r="N43" s="3">
-        <v>3100</v>
       </c>
       <c r="O43" s="3">
         <v>3100</v>
       </c>
       <c r="P43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>2600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2595,8 +2691,8 @@
       <c r="G44" s="3">
         <v>3900</v>
       </c>
-      <c r="H44" s="3">
-        <v>3700</v>
+      <c r="H44" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>19</v>
@@ -2604,41 +2700,44 @@
       <c r="J44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="3">
         <v>2600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3400</v>
-      </c>
-      <c r="T44" s="3">
-        <v>3100</v>
       </c>
       <c r="U44" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2654,8 +2753,8 @@
       <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3">
-        <v>1100</v>
+      <c r="H45" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>19</v>
@@ -2663,26 +2762,26 @@
       <c r="J45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>800</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>600</v>
       </c>
       <c r="R45" s="3">
         <v>600</v>
@@ -2694,10 +2793,13 @@
         <v>600</v>
       </c>
       <c r="U45" s="3">
+        <v>600</v>
+      </c>
+      <c r="V45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2713,8 +2815,8 @@
       <c r="G46" s="3">
         <v>7700</v>
       </c>
-      <c r="H46" s="3">
-        <v>7100</v>
+      <c r="H46" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>19</v>
@@ -2722,41 +2824,44 @@
       <c r="J46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="3">
         <v>5300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +2919,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2831,8 +2939,8 @@
       <c r="G48" s="3">
         <v>4800</v>
       </c>
-      <c r="H48" s="3">
-        <v>5100</v>
+      <c r="H48" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>19</v>
@@ -2840,41 +2948,44 @@
       <c r="J48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" s="3">
         <v>4100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4500</v>
-      </c>
-      <c r="M48" s="3">
-        <v>5200</v>
       </c>
       <c r="N48" s="3">
         <v>5200</v>
       </c>
       <c r="O48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="P48" s="3">
         <v>5500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2890,8 +3001,8 @@
       <c r="G49" s="3">
         <v>100</v>
       </c>
-      <c r="H49" s="3">
-        <v>100</v>
+      <c r="H49" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>19</v>
@@ -2899,11 +3010,11 @@
       <c r="J49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3">
         <v>100</v>
@@ -2921,7 +3032,7 @@
         <v>100</v>
       </c>
       <c r="R49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3067,8 +3187,8 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>19</v>
@@ -3076,14 +3196,14 @@
       <c r="J52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>700</v>
@@ -3101,16 +3221,19 @@
         <v>700</v>
       </c>
       <c r="S52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T52" s="3">
         <v>800</v>
       </c>
       <c r="U52" s="3">
+        <v>800</v>
+      </c>
+      <c r="V52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,8 +3291,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3185,8 +3311,8 @@
       <c r="G54" s="3">
         <v>12600</v>
       </c>
-      <c r="H54" s="3">
-        <v>12300</v>
+      <c r="H54" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>19</v>
@@ -3194,41 +3320,44 @@
       <c r="J54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" s="3">
         <v>9500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14000</v>
-      </c>
-      <c r="R54" s="3">
-        <v>14800</v>
       </c>
       <c r="S54" s="3">
         <v>14800</v>
       </c>
       <c r="T54" s="3">
+        <v>14800</v>
+      </c>
+      <c r="U54" s="3">
         <v>13600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3403,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3290,8 +3421,8 @@
       <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
-        <v>1200</v>
+      <c r="H57" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>19</v>
@@ -3299,41 +3430,44 @@
       <c r="J57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3349,50 +3483,53 @@
       <c r="G58" s="3">
         <v>3200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="S58" s="3">
+        <v>5400</v>
+      </c>
+      <c r="T58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="U58" s="3">
         <v>2400</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>2200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1900</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>2000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>2600</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>5700</v>
-      </c>
-      <c r="R58" s="3">
-        <v>5400</v>
-      </c>
-      <c r="S58" s="3">
-        <v>3500</v>
-      </c>
-      <c r="T58" s="3">
-        <v>2400</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3408,8 +3545,8 @@
       <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
-        <v>1000</v>
+      <c r="H59" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>19</v>
@@ -3417,41 +3554,44 @@
       <c r="J59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1200</v>
       </c>
       <c r="N59" s="3">
         <v>1200</v>
       </c>
       <c r="O59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>800</v>
       </c>
       <c r="R59" s="3">
         <v>800</v>
       </c>
       <c r="S59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T59" s="3">
         <v>700</v>
       </c>
       <c r="U59" s="3">
+        <v>700</v>
+      </c>
+      <c r="V59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3467,8 +3607,8 @@
       <c r="G60" s="3">
         <v>5500</v>
       </c>
-      <c r="H60" s="3">
-        <v>4600</v>
+      <c r="H60" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>19</v>
@@ -3476,41 +3616,44 @@
       <c r="J60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L60" s="3">
         <v>3000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3527,7 +3670,7 @@
         <v>3500</v>
       </c>
       <c r="H61" s="3">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3536,40 +3679,43 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>3700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4000</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>400</v>
       </c>
       <c r="R61" s="3">
         <v>400</v>
       </c>
       <c r="S61" s="3">
+        <v>400</v>
+      </c>
+      <c r="T61" s="3">
         <v>2300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3619,16 +3765,19 @@
         <v>0</v>
       </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
         <v>100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,8 +3959,11 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3821,8 +3979,8 @@
       <c r="G66" s="3">
         <v>9000</v>
       </c>
-      <c r="H66" s="3">
-        <v>8200</v>
+      <c r="H66" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>19</v>
@@ -3830,41 +3988,44 @@
       <c r="J66" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L66" s="3">
         <v>6700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,8 +4293,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4139,8 +4313,8 @@
       <c r="G72" s="3">
         <v>-5200</v>
       </c>
-      <c r="H72" s="3">
-        <v>-4600</v>
+      <c r="H72" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>19</v>
@@ -4148,41 +4322,44 @@
       <c r="J72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L72" s="3">
         <v>-6100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3800</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-3700</v>
       </c>
       <c r="O72" s="3">
         <v>-3700</v>
       </c>
       <c r="P72" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,8 +4541,11 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4375,8 +4561,8 @@
       <c r="G76" s="3">
         <v>3600</v>
       </c>
-      <c r="H76" s="3">
-        <v>4100</v>
+      <c r="H76" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>19</v>
@@ -4384,41 +4570,44 @@
       <c r="J76" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L76" s="3">
         <v>2800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,72 +4665,78 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4563,44 +4758,47 @@
       <c r="I81" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K81" s="3">
         <v>-600</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-500</v>
       </c>
       <c r="L81" s="3">
         <v>-500</v>
       </c>
       <c r="M81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-300</v>
       </c>
       <c r="T81" s="3">
         <v>-300</v>
       </c>
       <c r="U81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4645,8 +4844,8 @@
       <c r="I83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J83" s="3">
-        <v>400</v>
+      <c r="J83" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K83" s="3">
         <v>400</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5190,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4999,44 +5216,47 @@
       <c r="I89" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
+      <c r="J89" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5081,8 +5302,8 @@
       <c r="I91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5091,10 +5312,10 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-300</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
@@ -5106,19 +5327,22 @@
         <v>-100</v>
       </c>
       <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5258,20 +5488,20 @@
       <c r="I94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>700</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-300</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
@@ -5283,19 +5513,22 @@
         <v>-100</v>
       </c>
       <c r="R94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5796,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5576,44 +5822,47 @@
       <c r="I100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +5920,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5694,8 +5946,8 @@
       <c r="I102" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
+      <c r="J102" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -5710,24 +5962,27 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MICR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MICR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="92">
   <si>
     <t>MICR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,159 +665,172 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F8" s="3">
         <v>4900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>5400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>5800</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="3">
         <v>3600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>5300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>5100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>5400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>5300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>4800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -842,44 +855,50 @@
       <c r="J9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="3">
         <v>3500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3800</v>
-      </c>
-      <c r="M9" s="3">
-        <v>4400</v>
-      </c>
-      <c r="N9" s="3">
-        <v>4300</v>
       </c>
       <c r="O9" s="3">
         <v>4400</v>
       </c>
       <c r="P9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Q9" s="3">
         <v>4400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
+        <v>4400</v>
+      </c>
+      <c r="S9" s="3">
         <v>4000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>4200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>5000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>4600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>4400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -904,32 +923,32 @@
       <c r="J10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
-      </c>
-      <c r="N10" s="3">
-        <v>700</v>
-      </c>
-      <c r="O10" s="3">
-        <v>900</v>
       </c>
       <c r="P10" s="3">
         <v>700</v>
       </c>
       <c r="Q10" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="R10" s="3">
         <v>700</v>
       </c>
       <c r="S10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T10" s="3">
         <v>700</v>
@@ -938,10 +957,16 @@
         <v>400</v>
       </c>
       <c r="V10" s="3">
+        <v>700</v>
+      </c>
+      <c r="W10" s="3">
+        <v>400</v>
+      </c>
+      <c r="X10" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -993,11 +1020,11 @@
       <c r="K12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
+      <c r="L12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -1026,8 +1053,14 @@
       <c r="V12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1212,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,8 +1284,10 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1259,44 +1312,50 @@
       <c r="J17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="3">
         <v>4100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>5000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>5800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>5500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>5100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1321,44 +1380,50 @@
       <c r="J18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1381,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1407,11 +1474,11 @@
       <c r="J20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1438,13 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1472,41 +1545,47 @@
       <c r="K21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
+      <c r="L21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>500</v>
-      </c>
-      <c r="P21" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>200</v>
       </c>
       <c r="R21" s="3">
         <v>300</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T21" s="3">
+        <v>300</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1520,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1550,13 +1629,13 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
@@ -1567,8 +1646,14 @@
       <c r="V22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>100</v>
+      </c>
+      <c r="X22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1593,73 +1678,79 @@
       <c r="J23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q23" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
       <c r="S23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1674,25 +1765,31 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-400</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
+      <c r="U24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,8 +1850,14 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1779,23 +1882,23 @@
       <c r="J26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-200</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
@@ -1804,19 +1907,25 @@
         <v>-200</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1841,23 +1950,23 @@
       <c r="J27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-200</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
@@ -1866,19 +1975,25 @@
         <v>-200</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,31 +2054,37 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>19</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>19</v>
@@ -1983,26 +2104,32 @@
       <c r="P29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S29" s="3">
         <v>-400</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2151,11 +2290,11 @@
       <c r="J32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2182,13 +2321,19 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2213,44 +2358,50 @@
       <c r="J33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q33" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>-200</v>
       </c>
       <c r="S33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,8 +2462,14 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2337,111 +2494,123 @@
       <c r="J35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q35" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>-200</v>
       </c>
       <c r="S35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +2659,10 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2499,11 +2672,11 @@
       <c r="E41" s="3">
         <v>0</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
+      <c r="F41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>19</v>
@@ -2517,11 +2690,11 @@
       <c r="K41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
+      <c r="L41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2533,25 +2706,31 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2791,14 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2623,59 +2808,65 @@
       <c r="E43" s="3">
         <v>2400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O43" s="3">
         <v>2300</v>
       </c>
-      <c r="G43" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="P43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="T43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="U43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="V43" s="3">
+        <v>3200</v>
+      </c>
+      <c r="W43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="X43" s="3">
         <v>2400</v>
       </c>
-      <c r="M43" s="3">
-        <v>2300</v>
-      </c>
-      <c r="N43" s="3">
-        <v>2900</v>
-      </c>
-      <c r="O43" s="3">
-        <v>3100</v>
-      </c>
-      <c r="P43" s="3">
-        <v>3100</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>2600</v>
-      </c>
-      <c r="R43" s="3">
-        <v>2900</v>
-      </c>
-      <c r="S43" s="3">
-        <v>3400</v>
-      </c>
-      <c r="T43" s="3">
-        <v>3200</v>
-      </c>
-      <c r="U43" s="3">
-        <v>2300</v>
-      </c>
-      <c r="V43" s="3">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2685,59 +2876,65 @@
       <c r="E44" s="3">
         <v>2600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O44" s="3">
         <v>3000</v>
       </c>
-      <c r="G44" s="3">
-        <v>3900</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L44" s="3">
-        <v>2600</v>
-      </c>
-      <c r="M44" s="3">
-        <v>3000</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>3800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>3600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>3400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>3200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>3300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>3400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>3100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2747,47 +2944,47 @@
       <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N45" s="3">
+        <v>300</v>
+      </c>
+      <c r="O45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="P45" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
-        <v>900</v>
-      </c>
-      <c r="N45" s="3">
-        <v>500</v>
-      </c>
-      <c r="O45" s="3">
-        <v>200</v>
-      </c>
-      <c r="P45" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>800</v>
-      </c>
-      <c r="R45" s="3">
-        <v>600</v>
-      </c>
-      <c r="S45" s="3">
-        <v>600</v>
       </c>
       <c r="T45" s="3">
         <v>600</v>
@@ -2796,10 +2993,16 @@
         <v>600</v>
       </c>
       <c r="V45" s="3">
+        <v>600</v>
+      </c>
+      <c r="W45" s="3">
+        <v>600</v>
+      </c>
+      <c r="X45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2809,59 +3012,65 @@
       <c r="E46" s="3">
         <v>5300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N46" s="3">
+        <v>5300</v>
+      </c>
+      <c r="O46" s="3">
         <v>6200</v>
       </c>
-      <c r="G46" s="3">
-        <v>7700</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L46" s="3">
-        <v>5300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>6200</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>6900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>6800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>7400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>7200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>7600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>7400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>6300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,8 +3131,14 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2933,50 +3148,50 @@
       <c r="E48" s="3">
         <v>4100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="O48" s="3">
         <v>4500</v>
       </c>
-      <c r="G48" s="3">
-        <v>4800</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L48" s="3">
-        <v>4100</v>
-      </c>
-      <c r="M48" s="3">
-        <v>4500</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>5200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>5500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>5700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>6100</v>
-      </c>
-      <c r="S48" s="3">
-        <v>6400</v>
-      </c>
-      <c r="T48" s="3">
-        <v>6500</v>
       </c>
       <c r="U48" s="3">
         <v>6400</v>
@@ -2984,8 +3199,14 @@
       <c r="V48" s="3">
         <v>6500</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="X48" s="3">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2995,11 +3216,11 @@
       <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="3">
-        <v>100</v>
-      </c>
-      <c r="G49" s="3">
-        <v>100</v>
+      <c r="F49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>19</v>
@@ -3013,14 +3234,14 @@
       <c r="K49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>100</v>
+      <c r="L49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="N49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O49" s="3">
         <v>100</v>
@@ -3035,10 +3256,10 @@
         <v>100</v>
       </c>
       <c r="S49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -3046,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3181,11 +3420,11 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>19</v>
@@ -3199,17 +3438,17 @@
       <c r="K52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="N52" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>700</v>
@@ -3224,16 +3463,22 @@
         <v>700</v>
       </c>
       <c r="T52" s="3">
+        <v>700</v>
+      </c>
+      <c r="U52" s="3">
+        <v>700</v>
+      </c>
+      <c r="V52" s="3">
         <v>800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,8 +3539,14 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3305,59 +3556,65 @@
       <c r="E54" s="3">
         <v>9500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N54" s="3">
+        <v>9500</v>
+      </c>
+      <c r="O54" s="3">
         <v>10800</v>
       </c>
-      <c r="G54" s="3">
-        <v>12600</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L54" s="3">
-        <v>9500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>10800</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>13300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>12900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>13000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>13900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>14000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>14800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>14800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>13600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3663,10 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3415,59 +3676,65 @@
       <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N57" s="3">
+        <v>600</v>
+      </c>
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L57" s="3">
-        <v>600</v>
-      </c>
-      <c r="M57" s="3">
-        <v>900</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3477,59 +3744,65 @@
       <c r="E58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O58" s="3">
         <v>2200</v>
       </c>
-      <c r="G58" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>2200</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>5700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>5400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>3500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>2400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3539,59 +3812,65 @@
       <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N59" s="3">
+        <v>800</v>
+      </c>
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R59" s="3">
+        <v>900</v>
+      </c>
+      <c r="S59" s="3">
+        <v>700</v>
+      </c>
+      <c r="T59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="U59" s="3">
+        <v>800</v>
+      </c>
+      <c r="V59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="P59" s="3">
-        <v>900</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="W59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
-        <v>800</v>
-      </c>
-      <c r="S59" s="3">
-        <v>800</v>
-      </c>
-      <c r="T59" s="3">
-        <v>700</v>
-      </c>
-      <c r="U59" s="3">
-        <v>700</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3601,59 +3880,65 @@
       <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O60" s="3">
         <v>3700</v>
       </c>
-      <c r="G60" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L60" s="3">
-        <v>3000</v>
-      </c>
-      <c r="M60" s="3">
-        <v>3700</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>8200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>8800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>6300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>4800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3664,10 +3949,10 @@
         <v>3700</v>
       </c>
       <c r="F61" s="3">
-        <v>3800</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3682,10 +3967,10 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>3800</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>3700</v>
@@ -3694,28 +3979,34 @@
         <v>3800</v>
       </c>
       <c r="P61" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>3800</v>
+      </c>
+      <c r="R61" s="3">
         <v>3900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>4000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>2300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3768,16 +4059,22 @@
         <v>0</v>
       </c>
       <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
         <v>100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,8 +4271,14 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3973,59 +4288,65 @@
       <c r="E66" s="3">
         <v>6700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N66" s="3">
+        <v>6700</v>
+      </c>
+      <c r="O66" s="3">
         <v>7500</v>
       </c>
-      <c r="G66" s="3">
-        <v>9000</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L66" s="3">
-        <v>6700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>7500</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>8100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>8600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>9300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>8700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>7400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,8 +4637,14 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4307,59 +4654,65 @@
       <c r="E72" s="3">
         <v>-6100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="O72" s="3">
         <v>-5600</v>
       </c>
-      <c r="G72" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-3500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-3200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-3000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-2400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-2200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,8 +4909,14 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4555,59 +4926,65 @@
       <c r="E76" s="3">
         <v>2800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O76" s="3">
         <v>3200</v>
-      </c>
-      <c r="G76" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L76" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M76" s="3">
-        <v>3200</v>
-      </c>
-      <c r="N76" s="3">
-        <v>4900</v>
-      </c>
-      <c r="O76" s="3">
-        <v>5000</v>
       </c>
       <c r="P76" s="3">
         <v>4900</v>
       </c>
       <c r="Q76" s="3">
+        <v>5000</v>
+      </c>
+      <c r="R76" s="3">
+        <v>4900</v>
+      </c>
+      <c r="S76" s="3">
         <v>5100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>5400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>5500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>6100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>6300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,75 +5045,87 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4761,44 +5150,50 @@
       <c r="J81" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q81" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>-200</v>
       </c>
       <c r="S81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,37 +5216,39 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K83" s="3">
-        <v>400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>400</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="M83" s="3">
         <v>400</v>
@@ -4883,8 +5280,14 @@
       <c r="V83" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>400</v>
+      </c>
+      <c r="X83" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,49 +5718,51 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
@@ -5330,19 +5771,25 @@
         <v>-100</v>
       </c>
       <c r="S91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,49 +5918,55 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>700</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-300</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-100</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
@@ -5516,19 +5975,25 @@
         <v>-100</v>
       </c>
       <c r="S94" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="T94" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="U94" s="3">
         <v>-300</v>
       </c>
       <c r="V94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6284,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>1000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,37 +6420,43 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -5965,24 +6468,30 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
-      </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-100</v>
       </c>
       <c r="U102" s="3">
         <v>100</v>
       </c>
       <c r="V102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MICR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MICR_QTR_FIN.xlsx
@@ -5735,10 +5735,10 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
